--- a/Order Di2Trade SIS45 (1).xlsx
+++ b/Order Di2Trade SIS45 (1).xlsx
@@ -497,7 +497,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;лв&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +601,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -873,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,9 +1052,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,6 +1150,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1721,7 +1745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1732,8 +1756,8 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1765,7 @@
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="61" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
@@ -1764,7 +1788,7 @@
       <c r="D2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -1787,7 +1811,7 @@
       <c r="D3" s="45">
         <v>14.9</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="45">
         <f>D3*1.1</f>
         <v>16.39</v>
@@ -1814,7 +1838,7 @@
       <c r="D4" s="9">
         <v>13.79</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F19" si="0">D4*1.1</f>
         <v>15.169</v>
@@ -1841,7 +1865,7 @@
       <c r="D5" s="9">
         <v>3.95</v>
       </c>
-      <c r="E5" s="68"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>4.3450000000000006</v>
@@ -1856,7 +1880,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="87" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1868,7 +1892,7 @@
       <c r="D6" s="9">
         <v>4.93</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>5.423</v>
@@ -1895,7 +1919,7 @@
       <c r="D7" s="9">
         <v>6.35</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>6.9850000000000003</v>
@@ -1922,7 +1946,7 @@
       <c r="D8" s="9">
         <v>6.65</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>7.3150000000000013</v>
@@ -1937,7 +1961,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="87" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1949,7 +1973,7 @@
       <c r="D9" s="9">
         <v>6.6</v>
       </c>
-      <c r="E9" s="68"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>7.26</v>
@@ -1976,7 +2000,7 @@
       <c r="D10" s="9">
         <v>10.45</v>
       </c>
-      <c r="E10" s="68"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>11.495000000000001</v>
@@ -2003,7 +2027,7 @@
       <c r="D11" s="15">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>10.505000000000001</v>
@@ -2030,7 +2054,7 @@
       <c r="D12" s="9">
         <v>5.5</v>
       </c>
-      <c r="E12" s="69"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>6.0500000000000007</v>
@@ -2057,7 +2081,7 @@
       <c r="D13" s="15">
         <v>24.1</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>26.510000000000005</v>
@@ -2084,7 +2108,7 @@
       <c r="D14" s="9">
         <v>0.32</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>0.35200000000000004</v>
@@ -2099,7 +2123,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2111,7 +2135,7 @@
       <c r="D15" s="9">
         <v>0.63</v>
       </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
         <v>0.69300000000000006</v>
@@ -2138,7 +2162,7 @@
       <c r="D16" s="9">
         <v>0.95</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <v>36</v>
       </c>
       <c r="F16" s="15">
@@ -2167,7 +2191,7 @@
       <c r="D17" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
         <v>0.627</v>
@@ -2182,7 +2206,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="87" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -2194,7 +2218,7 @@
       <c r="D18" s="9">
         <v>0.75</v>
       </c>
-      <c r="E18" s="68"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
         <v>0.82500000000000007</v>
@@ -2221,7 +2245,7 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="E19" s="68"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
@@ -2236,7 +2260,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="87" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2248,7 +2272,7 @@
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="68"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="15">
         <f t="shared" ref="F20:F36" si="2">D20*1.1</f>
         <v>1.1000000000000001</v>
@@ -2275,7 +2299,7 @@
       <c r="D21" s="9">
         <v>4.25</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="15">
         <f t="shared" si="2"/>
         <v>4.6750000000000007</v>
@@ -2302,7 +2326,7 @@
       <c r="D22" s="9">
         <v>5.9</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="15">
         <f t="shared" si="2"/>
         <v>6.4900000000000011</v>
@@ -2329,7 +2353,7 @@
       <c r="D23" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="15">
         <f t="shared" si="2"/>
         <v>1.2100000000000002</v>
@@ -2356,7 +2380,7 @@
       <c r="D24" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="15">
         <f t="shared" si="2"/>
         <v>1.2100000000000002</v>
@@ -2383,7 +2407,7 @@
       <c r="D25" s="15">
         <v>1.9</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="15">
         <f t="shared" si="2"/>
         <v>2.09</v>
@@ -2398,7 +2422,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="87" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2410,7 +2434,7 @@
       <c r="D26" s="9">
         <v>0.65</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="67">
         <v>52.6</v>
       </c>
       <c r="F26" s="15">
@@ -2439,7 +2463,7 @@
       <c r="D27" s="9">
         <v>1.6</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="15">
         <f t="shared" si="2"/>
         <v>1.7600000000000002</v>
@@ -2466,7 +2490,7 @@
       <c r="D28" s="9">
         <v>2.1</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="15">
         <f t="shared" si="2"/>
         <v>2.3100000000000005</v>
@@ -2493,7 +2517,7 @@
       <c r="D29" s="9">
         <v>0.99</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="15">
         <f t="shared" si="2"/>
         <v>1.089</v>
@@ -2508,7 +2532,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="89" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -2520,7 +2544,7 @@
       <c r="D30" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E30" s="68"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="15">
         <f t="shared" si="2"/>
         <v>1.254</v>
@@ -2534,25 +2558,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
+    <row r="31" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="80">
         <v>115</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="81">
         <v>2.15</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="82">
+      <c r="E31" s="82"/>
+      <c r="F31" s="81">
         <f t="shared" ref="F31" si="3">D31*1.1</f>
         <v>2.3650000000000002</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="83">
         <f t="shared" ref="G31" si="4">E31*F31</f>
         <v>0</v>
       </c>
@@ -2574,7 +2598,7 @@
       <c r="D32" s="15">
         <v>1.7</v>
       </c>
-      <c r="E32" s="68"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="15">
         <f t="shared" si="2"/>
         <v>1.87</v>
@@ -2601,7 +2625,7 @@
       <c r="D33" s="9">
         <v>1.95</v>
       </c>
-      <c r="E33" s="68"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="15">
         <f t="shared" si="2"/>
         <v>2.145</v>
@@ -2628,7 +2652,7 @@
       <c r="D34" s="9">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="67">
         <v>20</v>
       </c>
       <c r="F34" s="15">
@@ -2645,7 +2669,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="87" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -2657,7 +2681,7 @@
       <c r="D35" s="9">
         <v>1.6</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="67">
         <v>60</v>
       </c>
       <c r="F35" s="15">
@@ -2686,7 +2710,7 @@
       <c r="D36" s="27">
         <v>1.48</v>
       </c>
-      <c r="E36" s="68"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="15">
         <f t="shared" si="2"/>
         <v>1.6280000000000001</v>
@@ -2713,7 +2737,7 @@
       <c r="D37" s="9">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E37" s="68"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="15">
         <f t="shared" ref="F37:F52" si="5">D37*1.1</f>
         <v>2.2549999999999999</v>
@@ -2740,7 +2764,7 @@
       <c r="D38" s="15">
         <v>5.4</v>
       </c>
-      <c r="E38" s="68"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="15">
         <f t="shared" si="5"/>
         <v>5.9400000000000013</v>
@@ -2767,7 +2791,7 @@
       <c r="D39" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E39" s="68"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="15">
         <f t="shared" si="5"/>
         <v>4.51</v>
@@ -2794,7 +2818,7 @@
       <c r="D40" s="9">
         <v>4</v>
       </c>
-      <c r="E40" s="68"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="15">
         <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
@@ -2809,7 +2833,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="90" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -2821,7 +2845,7 @@
       <c r="D41" s="9">
         <v>1.65</v>
       </c>
-      <c r="E41" s="68"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="15">
         <f t="shared" si="5"/>
         <v>1.8149999999999999</v>
@@ -2848,7 +2872,7 @@
       <c r="D42" s="15">
         <v>1.65</v>
       </c>
-      <c r="E42" s="68"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="15">
         <f t="shared" si="5"/>
         <v>1.8149999999999999</v>
@@ -2875,7 +2899,7 @@
       <c r="D43" s="15">
         <v>2.25</v>
       </c>
-      <c r="E43" s="68"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="15">
         <f t="shared" si="5"/>
         <v>2.4750000000000001</v>
@@ -2902,7 +2926,7 @@
       <c r="D44" s="9">
         <v>1.6</v>
       </c>
-      <c r="E44" s="68"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="15">
         <f t="shared" si="5"/>
         <v>1.7600000000000002</v>
@@ -2929,7 +2953,7 @@
       <c r="D45" s="15">
         <v>3.05</v>
       </c>
-      <c r="E45" s="68"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="15">
         <f t="shared" si="5"/>
         <v>3.355</v>
@@ -2956,7 +2980,7 @@
       <c r="D46" s="9">
         <v>3.05</v>
       </c>
-      <c r="E46" s="68"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="15">
         <f>D46*1.1</f>
         <v>3.355</v>
@@ -2983,7 +3007,7 @@
       <c r="D47" s="9">
         <v>3.35</v>
       </c>
-      <c r="E47" s="68"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="15">
         <f t="shared" si="5"/>
         <v>3.6850000000000005</v>
@@ -2998,7 +3022,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="88" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -3010,7 +3034,7 @@
       <c r="D48" s="15">
         <v>2.41</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="67">
         <v>86.4</v>
       </c>
       <c r="F48" s="15">
@@ -3027,7 +3051,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="93" t="s">
         <v>85</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -3039,7 +3063,7 @@
       <c r="D49" s="9">
         <v>3.35</v>
       </c>
-      <c r="E49" s="68"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="15">
         <f t="shared" si="5"/>
         <v>3.6850000000000005</v>
@@ -3054,7 +3078,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="94" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="17" t="s">
@@ -3066,7 +3090,7 @@
       <c r="D50" s="9">
         <v>3.8</v>
       </c>
-      <c r="E50" s="68"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="15">
         <f t="shared" si="5"/>
         <v>4.18</v>
@@ -3093,7 +3117,7 @@
       <c r="D51" s="9">
         <v>1.4</v>
       </c>
-      <c r="E51" s="68"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="15">
         <f t="shared" si="5"/>
         <v>1.54</v>
@@ -3120,7 +3144,7 @@
       <c r="D52" s="15">
         <v>6.7</v>
       </c>
-      <c r="E52" s="68"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="15">
         <f t="shared" si="5"/>
         <v>7.370000000000001</v>
@@ -3147,7 +3171,7 @@
       <c r="D53" s="9">
         <v>2.8</v>
       </c>
-      <c r="E53" s="68"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="15">
         <f t="shared" ref="F53:F72" si="6">D53*1.1</f>
         <v>3.08</v>
@@ -3162,7 +3186,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="87" t="s">
         <v>93</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -3174,7 +3198,7 @@
       <c r="D54" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E54" s="68"/>
+      <c r="E54" s="67"/>
       <c r="F54" s="15">
         <f t="shared" si="6"/>
         <v>2.4200000000000004</v>
@@ -3189,7 +3213,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="90" t="s">
         <v>95</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -3201,7 +3225,7 @@
       <c r="D55" s="9">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E55" s="68"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="15">
         <f t="shared" si="6"/>
         <v>4.5650000000000004</v>
@@ -3228,7 +3252,7 @@
       <c r="D56" s="9">
         <v>2.7</v>
       </c>
-      <c r="E56" s="68"/>
+      <c r="E56" s="67"/>
       <c r="F56" s="15">
         <f t="shared" si="6"/>
         <v>2.9700000000000006</v>
@@ -3255,7 +3279,7 @@
       <c r="D57" s="15">
         <v>0.16</v>
       </c>
-      <c r="E57" s="68"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="15">
         <f t="shared" si="6"/>
         <v>0.17600000000000002</v>
@@ -3282,7 +3306,7 @@
       <c r="D58" s="9">
         <v>2.25</v>
       </c>
-      <c r="E58" s="68"/>
+      <c r="E58" s="67"/>
       <c r="F58" s="15">
         <f t="shared" si="6"/>
         <v>2.4750000000000001</v>
@@ -3309,7 +3333,7 @@
       <c r="D59" s="9">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E59" s="68"/>
+      <c r="E59" s="67"/>
       <c r="F59" s="15">
         <f t="shared" si="6"/>
         <v>2.2549999999999999</v>
@@ -3324,19 +3348,19 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="57">
+      <c r="C60" s="56">
         <v>32.4</v>
       </c>
       <c r="D60" s="39">
         <v>3.55</v>
       </c>
-      <c r="E60" s="70">
+      <c r="E60" s="69">
         <v>47</v>
       </c>
       <c r="F60" s="41">
@@ -3359,13 +3383,13 @@
       <c r="B61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="60">
+      <c r="C61" s="59">
         <v>10</v>
       </c>
-      <c r="D61" s="61">
+      <c r="D61" s="60">
         <v>8.58</v>
       </c>
-      <c r="E61" s="71"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="4">
         <f>D61*1.1</f>
         <v>9.4380000000000006</v>
@@ -3392,7 +3416,7 @@
       <c r="D62" s="9">
         <v>8.58</v>
       </c>
-      <c r="E62" s="69"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="15">
         <f>D62*1.1</f>
         <v>9.4380000000000006</v>
@@ -3419,7 +3443,7 @@
       <c r="D63" s="54">
         <v>9.83</v>
       </c>
-      <c r="E63" s="72"/>
+      <c r="E63" s="71"/>
       <c r="F63" s="45">
         <f t="shared" si="6"/>
         <v>10.813000000000001</v>
@@ -3434,7 +3458,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="88" t="s">
+      <c r="A64" s="87" t="s">
         <v>130</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -3446,7 +3470,7 @@
       <c r="D64" s="9">
         <v>6.24</v>
       </c>
-      <c r="E64" s="69"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="15">
         <f t="shared" ref="F64:F71" si="7">D64*1.1</f>
         <v>6.8640000000000008</v>
@@ -3461,10 +3485,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="58" t="s">
         <v>107</v>
       </c>
       <c r="C65" s="53">
@@ -3473,7 +3497,7 @@
       <c r="D65" s="54">
         <v>6.24</v>
       </c>
-      <c r="E65" s="72"/>
+      <c r="E65" s="71"/>
       <c r="F65" s="45">
         <f t="shared" si="7"/>
         <v>6.8640000000000008</v>
@@ -3488,7 +3512,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="88" t="s">
+      <c r="A66" s="87" t="s">
         <v>125</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -3500,7 +3524,7 @@
       <c r="D66" s="9">
         <v>6.08</v>
       </c>
-      <c r="E66" s="69">
+      <c r="E66" s="68">
         <v>20</v>
       </c>
       <c r="F66" s="15">
@@ -3529,7 +3553,7 @@
       <c r="D67" s="9">
         <v>4.29</v>
       </c>
-      <c r="E67" s="69"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="15">
         <f t="shared" si="7"/>
         <v>4.7190000000000003</v>
@@ -3556,7 +3580,7 @@
       <c r="D68" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E68" s="69">
+      <c r="E68" s="68">
         <v>20</v>
       </c>
       <c r="F68" s="15">
@@ -3585,7 +3609,7 @@
       <c r="D69" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E69" s="69">
+      <c r="E69" s="68">
         <v>20</v>
       </c>
       <c r="F69" s="15">
@@ -3602,7 +3626,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="91" t="s">
         <v>124</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -3614,7 +3638,7 @@
       <c r="D70" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E70" s="69"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="15">
         <f t="shared" si="7"/>
         <v>2.5299999999999998</v>
@@ -3641,7 +3665,7 @@
       <c r="D71" s="9">
         <v>2.1</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="68">
         <v>25</v>
       </c>
       <c r="F71" s="15">
@@ -3658,7 +3682,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="88" t="s">
         <v>115</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -3670,7 +3694,7 @@
       <c r="D72" s="9">
         <v>27.72</v>
       </c>
-      <c r="E72" s="69"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="15">
         <f t="shared" si="6"/>
         <v>30.492000000000001</v>
@@ -3697,7 +3721,7 @@
       <c r="D73" s="9">
         <v>27.72</v>
       </c>
-      <c r="E73" s="69"/>
+      <c r="E73" s="68"/>
       <c r="F73" s="15">
         <f t="shared" ref="F73:F80" si="9">D73*1.1</f>
         <v>30.492000000000001</v>
@@ -3724,7 +3748,7 @@
       <c r="D74" s="9">
         <v>2.93</v>
       </c>
-      <c r="E74" s="69"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="15">
         <f t="shared" si="9"/>
         <v>3.2230000000000003</v>
@@ -3751,7 +3775,7 @@
       <c r="D75" s="9">
         <v>26.9</v>
       </c>
-      <c r="E75" s="69"/>
+      <c r="E75" s="68"/>
       <c r="F75" s="15">
         <f t="shared" si="9"/>
         <v>29.59</v>
@@ -3778,7 +3802,7 @@
       <c r="D76" s="9">
         <v>26.9</v>
       </c>
-      <c r="E76" s="69"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="15">
         <f t="shared" si="9"/>
         <v>29.59</v>
@@ -3805,7 +3829,7 @@
       <c r="D77" s="9">
         <v>26.9</v>
       </c>
-      <c r="E77" s="69"/>
+      <c r="E77" s="68"/>
       <c r="F77" s="15">
         <f t="shared" si="9"/>
         <v>29.59</v>
@@ -3832,7 +3856,7 @@
       <c r="D78" s="9">
         <v>19.559999999999999</v>
       </c>
-      <c r="E78" s="69"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="15">
         <f t="shared" si="9"/>
         <v>21.516000000000002</v>
@@ -3859,7 +3883,7 @@
       <c r="D79" s="9">
         <v>19.559999999999999</v>
       </c>
-      <c r="E79" s="69"/>
+      <c r="E79" s="68"/>
       <c r="F79" s="15">
         <f t="shared" si="9"/>
         <v>21.516000000000002</v>
@@ -3886,7 +3910,7 @@
       <c r="D80" s="39">
         <v>19.559999999999999</v>
       </c>
-      <c r="E80" s="73"/>
+      <c r="E80" s="72"/>
       <c r="F80" s="41">
         <f t="shared" si="9"/>
         <v>21.516000000000002</v>
@@ -3901,135 +3925,135 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G81" s="63">
+      <c r="G81" s="62">
         <f>SUM(G3:G80)</f>
         <v>1019.2204000000002</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="65" t="s">
+      <c r="A82" s="64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="64">
+      <c r="A83" s="63">
         <v>43755</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="74" t="s">
+      <c r="A85" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="74" t="s">
+      <c r="A86" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="74"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
+      <c r="A88" s="76"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="74" t="s">
+      <c r="A89" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="74"/>
-      <c r="C89" s="74"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="76" t="s">
+      <c r="A90" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B90" s="74"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="76" t="s">
+      <c r="A91" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="B92" s="74"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="74"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-    </row>
-    <row r="95" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="74"/>
+      <c r="A94" s="76"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+    </row>
+    <row r="95" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="75"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="73"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4066,6 +4090,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>